--- a/examples/structural/curved_data.xlsx
+++ b/examples/structural/curved_data.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6975" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6975" windowHeight="6000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ghuku (2016)" sheetId="2" r:id="rId1"/>
-    <sheet name="FEA (3D, c3=0.25)" sheetId="5" r:id="rId2"/>
-    <sheet name="Ghuku (2016) - Fig 10" sheetId="1" r:id="rId3"/>
-    <sheet name="Chen (2010)" sheetId="4" r:id="rId4"/>
+    <sheet name="FEA (3D, c3=0.25, F=-1)" sheetId="5" r:id="rId2"/>
+    <sheet name="FEA (3D, c3=0.25, F=-10)" sheetId="6" r:id="rId3"/>
+    <sheet name="Ghuku (2016) - Fig 10" sheetId="1" r:id="rId4"/>
+    <sheet name="Chen (2010)" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -55,6 +59,9 @@
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>Mine</t>
   </si>
 </sst>
 </file>
@@ -542,7 +549,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -550,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1700,6 +1708,502 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Minimum potential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FEA (3D, c3=0.25, F=-10)'!$G$11:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FEA (3D, c3=0.25, F=-10)'!$H$11:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.170681E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7649450000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6165479999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10340379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0811-4110-BB63-AF434641D074}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FEA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FEA (3D, c3=0.25, F=-10)'!$G$11:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FEA (3D, c3=0.25, F=-10)'!$I$11:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9060000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8530000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8380000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8570000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0811-4110-BB63-AF434641D074}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128198000"/>
+        <c:axId val="2128195920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2128198000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128195920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2128195920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vertical displacement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128198000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2670,7 +3174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2737,7 +3240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3065,7 +3568,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3481,6 +3983,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4514,6 +5056,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5070,6 +6128,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -5101,7 +6194,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5136,6 +6229,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="xyToExcel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6449,12 +7555,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6465,8 +7571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6785,6 +7891,418 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6.453392813504836E-34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.3416515793369717E-33</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6.453392813504836E-34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>5.0006095319986343E-2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.7290222765877843E-4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.0940569710510317E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-2.7709774440154433E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.10002018511295319</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.3913749717175961E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.018236045842059E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-1.1086249724030495E-3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.15010295808315277</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.7872146349400282E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.0294888488715515E-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-2.4627854581922293E-3</v>
+      </c>
+      <c r="G5">
+        <v>-2.5</v>
+      </c>
+      <c r="H5">
+        <v>-2.170681E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.2002079039812088</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.6861052289605141E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0790637063328177E-4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-4.313894547522068E-3</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>-4.7649450000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.2504427433013916</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9.6172690391540527E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.4275730033405125E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-6.6327308304607868E-3</v>
+      </c>
+      <c r="G7">
+        <v>-7.5</v>
+      </c>
+      <c r="H7">
+        <v>-7.6165479999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.30071151256561279</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.3108834624290466E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.1150175062939525E-4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-9.3911662697792053E-3</v>
+      </c>
+      <c r="G8">
+        <v>-10</v>
+      </c>
+      <c r="H8">
+        <v>-0.10340379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.35116297006607056</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.8687227740883827E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.1629753280431032E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1.2562771327793598E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.40165713429450989</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.3883387446403503E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.6571145970374346E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.6116611659526825E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0.4523780345916748</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.1220881268382072E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.3780330084264278E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-2.0029118284583092E-2</v>
+      </c>
+      <c r="G11">
+        <f>-G4</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f>-H4</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.50314706563949585</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.8233637809753418E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.1470682006329298E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-2.4266362190246582E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:H15" si="0">-G5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>2.170681E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.9060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>0.55417782068252563</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.7442477196455002E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.1777808219194412E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-2.8807524591684341E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7649450000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.8530000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0.60525840520858765</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.6384321302175522E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.2583832293748856E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-3.3615682274103165E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6165479999999994E-2</v>
+      </c>
+      <c r="I14">
+        <v>5.8380000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>0.65662604570388794</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6.7577548325061798E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.6260644234716892E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-3.8672454655170441E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10340379</v>
+      </c>
+      <c r="I15">
+        <v>7.8570000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>0.70804136991500854</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.8561894595623016E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8.0413883551955223E-3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-4.3938111513853073E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>0.75975936651229858</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9.1853752732276917E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.7593488171696663E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-4.9396246671676636E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>0.81151837110519409</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.10499536991119385</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.1518340557813644E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-5.5004626512527466E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.86358535289764404</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.12050178647041321</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.3585310429334641E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-6.074821949005127E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>0.91568195819854736</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.13591727614402771</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.5681957826018333E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-6.6582731902599335E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>0.96808129549026489</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.15375615656375885</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.8081283196806908E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-7.249382883310318E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1.0204937458038299</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.17156435549259186</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.04937644302845E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-7.8435644507408142E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
@@ -8065,7 +9583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>

--- a/examples/structural/curved_data.xlsx
+++ b/examples/structural/curved_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6975" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6975" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Ghuku (2016)" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Ghuku (2016) - Fig 10" sheetId="1" r:id="rId4"/>
     <sheet name="Chen (2010)" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -554,10 +551,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3174,6 +3171,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3568,6 +3566,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6231,19 +6230,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="xyToExcel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6509,7 +6495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -6974,30 +6960,30 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7894,51 +7880,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>6.453392813504836E-34</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.3416515793369717E-33</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>6.453392813504836E-34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>5.0006095319986343E-2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>9.7290222765877843E-4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>6.0940569710510317E-6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>-2.7709774440154433E-4</v>
       </c>
       <c r="G3" t="s">
@@ -7946,16 +7932,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0.10002018511295319</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.3913749717175961E-3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2.018236045842059E-5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-1.1086249724030495E-3</v>
       </c>
       <c r="G4">
@@ -7966,16 +7952,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0.15010295808315277</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>3.7872146349400282E-3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.0294888488715515E-4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-2.4627854581922293E-3</v>
       </c>
       <c r="G5">
@@ -7986,16 +7972,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>0.2002079039812088</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5.6861052289605141E-3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.0790637063328177E-4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-4.313894547522068E-3</v>
       </c>
       <c r="G6">
@@ -8006,16 +7992,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>0.2504427433013916</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>9.6172690391540527E-3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4.4275730033405125E-4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-6.6327308304607868E-3</v>
       </c>
       <c r="G7">
@@ -8026,16 +8012,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>0.30071151256561279</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1.3108834624290466E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>7.1150175062939525E-4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>-9.3911662697792053E-3</v>
       </c>
       <c r="G8">
@@ -8046,51 +8032,51 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>0.35116297006607056</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1.8687227740883827E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.1629753280431032E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>-1.2562771327793598E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>0.40165713429450989</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2.3883387446403503E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.6571145970374346E-3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>-1.6116611659526825E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>0.4523780345916748</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3.1220881268382072E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2.3780330084264278E-3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>-2.0029118284583092E-2</v>
       </c>
       <c r="G11">
         <f>-G4</f>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>-H4</f>
         <v>0</v>
       </c>
@@ -8099,23 +8085,23 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>0.50314706563949585</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3.8233637809753418E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3.1470682006329298E-3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-2.4266362190246582E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" ref="G12:H15" si="0">-G5</f>
         <v>2.5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>2.170681E-2</v>
       </c>
@@ -8124,23 +8110,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>0.55417782068252563</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4.7442477196455002E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>4.1777808219194412E-3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>-2.8807524591684341E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>4.7649450000000003E-2</v>
       </c>
@@ -8149,23 +8135,23 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>0.60525840520858765</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5.6384321302175522E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5.2583832293748856E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-3.3615682274103165E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>7.6165479999999994E-2</v>
       </c>
@@ -8174,23 +8160,23 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>0.65662604570388794</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>6.7577548325061798E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>6.6260644234716892E-3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>-3.8672454655170441E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>0.10340379</v>
       </c>
@@ -8199,100 +8185,100 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>0.70804136991500854</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7.8561894595623016E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>8.0413883551955223E-3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>-4.3938111513853073E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>0.75975936651229858</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>9.1853752732276917E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>9.7593488171696663E-3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>-4.9396246671676636E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>0.81151837110519409</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.10499536991119385</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1.1518340557813644E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>-5.5004626512527466E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>0.86358535289764404</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.12050178647041321</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>1.3585310429334641E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>-6.074821949005127E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>0.91568195819854736</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.13591727614402771</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>1.5681957826018333E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>-6.6582731902599335E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>0.96808129549026489</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.15375615656375885</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>1.8081283196806908E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>-7.249382883310318E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1.0204937458038299</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.17156435549259186</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2.04937644302845E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>-7.8435644507408142E-2</v>
       </c>
     </row>
